--- a/ResourceFile_Depression_nov19.xlsx
+++ b/ResourceFile_Depression_nov19.xlsx
@@ -5793,7 +5793,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6073,7 +6073,7 @@
         <v>576</v>
       </c>
       <c r="B33" s="23">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/ResourceFile_Depression_nov19.xlsx
+++ b/ResourceFile_Depression_nov19.xlsx
@@ -5793,7 +5793,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6073,7 +6073,7 @@
         <v>576</v>
       </c>
       <c r="B33" s="23">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
